--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_217.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_217.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05969267139479905</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_87</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09337044534412955</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.276092)]</t>
+          <t>[['C:7', 'F:min', 'F:min'], ['F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(136.07, 138.78)]</t>
+          <t>[('0:01:36.752312', '0:01:39.387777'), ('0:00:03.744784', '0:00:06.774988')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:55.460000', '0:00:59.630000'), ('0:00:00.600000', '0:00:05.900000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04807261317794711</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['Bb', 'Eb/5', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.62, 45.66), (41.46, 45.06)]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.94, 12.72), (9.24, 12.02)]</t>
+          <t>[('0:01:33.181700', '0:01:37.709591')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.426857', '0:00:03.509464')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
-        </is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_56</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0565050575514475</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:min7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(70.519024, 79.249727)]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:40.640000', '0:00:47.330000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:13.210000', '0:00:15.930000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04642857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['C', 'C', 'D:7/C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(120.5, 149.88)]</t>
+          <t>[['G', 'G', 'A:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(164.36, 206.12)]</t>
+          <t>[('0:03:54.700000', '0:04:02.220000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.560000', '0:00:04.060000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2795031055900621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.98, 29.42), (235.32, 239.98)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72), (19.96, 23.02)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.646772', '0:00:12.917702')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1349206349206349</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.028463, 6.708825)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(89.739, 104.707)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07605905006418484</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D/5', 'E/4', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.544, 8.638)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62), (61.6, 63.84)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.64, 10.36), (57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66), (7.14, 14.34)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(25.8, 29.46), (14.62, 19.56)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'Bb'], ['F', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'F'], ['C', 'D', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(94.372267, 102.650181), (75.355124, 80.742154)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.017256, 9.231677), (17.788231, 22.107142)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1040540540540541</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'G', 'D']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.169705, 38.767256)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.611451, 17.670317)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.26, 15.94)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1191176470588235</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'C#:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(33.477936, 40.084013)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.496439, 26.964739)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1053351573187414</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:maj', 'C:maj', 'G:maj', 'D:maj'], ['D:maj', 'A/3', 'D/7', 'G/3'], ['G/3', 'G:maj', 'C:maj', 'G:maj'], ['G:maj', 'D:maj', 'A/3', 'D/7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E'], ['E/3', 'A', 'E/5', 'B'], ['E/5', 'B', 'E', 'A'], ['E', 'E/3', 'A', 'E/5'], ['A', 'E/5', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.822, 20.852), (15.014, 24.195), (59.78, 64.972), (41.649, 47.902), (59.037, 64.294)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.172811, 51.200022), (28.395907, 32.322199), (30.035034, 46.428321), (27.610855, 31.172811), (28.817155, 41.761111)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
